--- a/Desktop/Amir/Report/Digestion/Titan/POW 181124/Borang peluluhan.xlsx
+++ b/Desktop/Amir/Report/Digestion/Titan/POW 181124/Borang peluluhan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\Report\Digestion\Titan\POW 181124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F497CB-63D4-48E0-B8FC-C02CAE039C7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BC4D8C-FB7A-4B28-8418-CDF52A39B993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormTitan" sheetId="7" r:id="rId1"/>
@@ -2640,7 +2640,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2692,10 +2692,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4691702" y="902514"/>
-              <a:ext cx="1783775" cy="349454"/>
-              <a:chOff x="5019284" y="923329"/>
-              <a:chExt cx="2078189" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019282" y="923331"/>
+              <a:chExt cx="2078190" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2761,7 +2761,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019284" y="923329"/>
+                <a:off x="5019282" y="923331"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2808,7 +2808,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792672" y="927231"/>
+                <a:off x="6792671" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3711,7 +3711,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3763,10 +3763,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4691704" y="902514"/>
-              <a:ext cx="1783771" cy="349454"/>
-              <a:chOff x="5019293" y="923329"/>
-              <a:chExt cx="2078189" cy="229184"/>
+              <a:off x="4691704" y="902517"/>
+              <a:ext cx="1783770" cy="349454"/>
+              <a:chOff x="5019294" y="923331"/>
+              <a:chExt cx="2078188" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -3832,7 +3832,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019293" y="923329"/>
+                <a:off x="5019294" y="923331"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -4834,7 +4834,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4886,10 +4886,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4691704" y="902514"/>
-              <a:ext cx="1783771" cy="349454"/>
-              <a:chOff x="5019293" y="923329"/>
-              <a:chExt cx="2078189" cy="229184"/>
+              <a:off x="4691704" y="902517"/>
+              <a:ext cx="1783770" cy="349454"/>
+              <a:chOff x="5019294" y="923331"/>
+              <a:chExt cx="2078188" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -4955,7 +4955,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019293" y="923329"/>
+                <a:off x="5019294" y="923331"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -5957,7 +5957,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6009,10 +6009,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4692500" y="902246"/>
-              <a:ext cx="1783838" cy="349653"/>
-              <a:chOff x="5019291" y="923327"/>
-              <a:chExt cx="2078189" cy="229184"/>
+              <a:off x="4692499" y="902243"/>
+              <a:ext cx="1783841" cy="349653"/>
+              <a:chOff x="5019288" y="923325"/>
+              <a:chExt cx="2078192" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -6078,7 +6078,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019291" y="923327"/>
+                <a:off x="5019288" y="923325"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7080,7 +7080,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7132,10 +7132,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4691702" y="902514"/>
-              <a:ext cx="1783776" cy="349454"/>
-              <a:chOff x="5019300" y="923329"/>
-              <a:chExt cx="2078192" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019298" y="923331"/>
+              <a:chExt cx="2078199" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -7154,7 +7154,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5939529" y="927230"/>
+                <a:off x="5939530" y="927230"/>
                 <a:ext cx="304806" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7201,8 +7201,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019300" y="923329"/>
-                <a:ext cx="304607" cy="229184"/>
+                <a:off x="5019298" y="923331"/>
+                <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -7248,7 +7248,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792691" y="927231"/>
+                <a:off x="6792696" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8203,7 +8203,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8255,10 +8255,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4691704" y="902514"/>
-              <a:ext cx="1783771" cy="349454"/>
-              <a:chOff x="5019293" y="923329"/>
-              <a:chExt cx="2078189" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019294" y="923331"/>
+              <a:chExt cx="2078188" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -8324,7 +8324,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019293" y="923329"/>
+                <a:off x="5019294" y="923331"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -9326,7 +9326,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -9378,10 +9378,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4691704" y="902514"/>
-              <a:ext cx="1783771" cy="349454"/>
-              <a:chOff x="5019293" y="923329"/>
-              <a:chExt cx="2078189" cy="229184"/>
+              <a:off x="4691704" y="902517"/>
+              <a:ext cx="1783770" cy="349454"/>
+              <a:chOff x="5019294" y="923331"/>
+              <a:chExt cx="2078188" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -9447,7 +9447,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019293" y="923329"/>
+                <a:off x="5019294" y="923331"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10449,7 +10449,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10501,10 +10501,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4691704" y="902514"/>
-              <a:ext cx="1783771" cy="349454"/>
-              <a:chOff x="5019293" y="923329"/>
-              <a:chExt cx="2078189" cy="229184"/>
+              <a:off x="4691704" y="902517"/>
+              <a:ext cx="1783770" cy="349454"/>
+              <a:chOff x="5019294" y="923331"/>
+              <a:chExt cx="2078188" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -10570,7 +10570,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019293" y="923329"/>
+                <a:off x="5019294" y="923331"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -11572,7 +11572,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11624,10 +11624,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4691704" y="902514"/>
-              <a:ext cx="1783771" cy="349454"/>
-              <a:chOff x="5019293" y="923329"/>
-              <a:chExt cx="2078189" cy="229184"/>
+              <a:off x="4691704" y="902517"/>
+              <a:ext cx="1783770" cy="349454"/>
+              <a:chOff x="5019294" y="923331"/>
+              <a:chExt cx="2078188" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -11693,7 +11693,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019293" y="923329"/>
+                <a:off x="5019294" y="923331"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -12695,7 +12695,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12747,10 +12747,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4691704" y="902514"/>
-              <a:ext cx="1783771" cy="349454"/>
-              <a:chOff x="5019293" y="923329"/>
-              <a:chExt cx="2078189" cy="229184"/>
+              <a:off x="4691704" y="902517"/>
+              <a:ext cx="1783770" cy="349454"/>
+              <a:chOff x="5019294" y="923331"/>
+              <a:chExt cx="2078188" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -12816,7 +12816,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019293" y="923329"/>
+                <a:off x="5019294" y="923331"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -13818,7 +13818,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -13870,10 +13870,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4691704" y="902514"/>
-              <a:ext cx="1783771" cy="349454"/>
-              <a:chOff x="5019293" y="923329"/>
-              <a:chExt cx="2078189" cy="229184"/>
+              <a:off x="4691704" y="902517"/>
+              <a:ext cx="1783770" cy="349454"/>
+              <a:chOff x="5019294" y="923331"/>
+              <a:chExt cx="2078188" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -13939,7 +13939,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019293" y="923329"/>
+                <a:off x="5019294" y="923331"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -14941,7 +14941,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -14993,10 +14993,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4691704" y="902514"/>
-              <a:ext cx="1783771" cy="349454"/>
-              <a:chOff x="5019293" y="923329"/>
-              <a:chExt cx="2078189" cy="229184"/>
+              <a:off x="4691704" y="902517"/>
+              <a:ext cx="1783770" cy="349454"/>
+              <a:chOff x="5019294" y="923331"/>
+              <a:chExt cx="2078188" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -15062,7 +15062,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019293" y="923329"/>
+                <a:off x="5019294" y="923331"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -16077,8 +16077,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16798,7 +16798,7 @@
         <v>75</v>
       </c>
       <c r="B20" s="46">
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
@@ -17841,7 +17841,7 @@
       <c r="C29" s="153"/>
       <c r="D29" s="154">
         <f>FormTitan!B20</f>
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="E29" s="155"/>
       <c r="F29" s="3"/>
@@ -18541,7 +18541,7 @@
       <c r="C29" s="153"/>
       <c r="D29" s="154">
         <f>FormTitan!B20</f>
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="E29" s="155"/>
       <c r="F29" s="3"/>
@@ -19241,7 +19241,7 @@
       <c r="C29" s="153"/>
       <c r="D29" s="154">
         <f>FormTitan!B20</f>
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="E29" s="155"/>
       <c r="F29" s="3"/>
@@ -19941,7 +19941,7 @@
       <c r="C29" s="153"/>
       <c r="D29" s="154">
         <f>FormTitan!B20</f>
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="E29" s="155"/>
       <c r="F29" s="3"/>
@@ -20180,8 +20180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20641,7 +20641,7 @@
       <c r="C29" s="153"/>
       <c r="D29" s="154">
         <f>FormTitan!B20</f>
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="E29" s="155"/>
       <c r="F29" s="3"/>
@@ -20789,13 +20789,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>571500</xdr:colOff>
+                    <xdr:colOff>504825</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -20816,10 +20816,10 @@
                     <xdr:rowOff>257175</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1524000</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20833,7 +20833,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>619125</xdr:colOff>
+                    <xdr:colOff>590550</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </from>
@@ -21341,7 +21341,7 @@
       <c r="C29" s="153"/>
       <c r="D29" s="154">
         <f>FormTitan!B20</f>
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="E29" s="155"/>
       <c r="F29" s="3"/>
@@ -21489,13 +21489,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>571500</xdr:colOff>
+                    <xdr:colOff>504825</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -21516,10 +21516,10 @@
                     <xdr:rowOff>257175</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1524000</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21533,7 +21533,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>619125</xdr:colOff>
+                    <xdr:colOff>590550</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </from>
@@ -21580,7 +21580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -22041,7 +22041,7 @@
       <c r="C29" s="153"/>
       <c r="D29" s="154">
         <f>FormTitan!B20</f>
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="E29" s="155"/>
       <c r="F29" s="3"/>
@@ -22189,13 +22189,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>571500</xdr:colOff>
+                    <xdr:colOff>504825</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -22216,10 +22216,10 @@
                     <xdr:rowOff>257175</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1524000</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22233,7 +22233,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>619125</xdr:colOff>
+                    <xdr:colOff>590550</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </from>
@@ -22741,7 +22741,7 @@
       <c r="C29" s="153"/>
       <c r="D29" s="154">
         <f>FormTitan!B20</f>
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="E29" s="155"/>
       <c r="F29" s="3"/>
@@ -23441,7 +23441,7 @@
       <c r="C29" s="153"/>
       <c r="D29" s="154">
         <f>FormTitan!B20</f>
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="E29" s="155"/>
       <c r="F29" s="3"/>
@@ -24141,7 +24141,7 @@
       <c r="C29" s="153"/>
       <c r="D29" s="154">
         <f>FormTitan!B20</f>
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="E29" s="155"/>
       <c r="F29" s="3"/>
@@ -24841,7 +24841,7 @@
       <c r="C29" s="153"/>
       <c r="D29" s="154">
         <f>FormTitan!B20</f>
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="E29" s="155"/>
       <c r="F29" s="3"/>
@@ -25541,7 +25541,7 @@
       <c r="C29" s="153"/>
       <c r="D29" s="154">
         <f>FormTitan!B20</f>
-        <v>45515</v>
+        <v>45614</v>
       </c>
       <c r="E29" s="155"/>
       <c r="F29" s="3"/>
